--- a/va_facility_data_2025-02-20/Sikeston VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sikeston%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sikeston VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sikeston%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R15407d8a15554092b1f0d35e89e9a228"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R71bc741b7e7d480cb4c7e61714b063e1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R7791ff6cef6845c781160cddd39ba60d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2f1cb479a4a1464080cd1f08158aa670"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R3b01feb7ed794576929a6d91fa6b7d8f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra4273907b6f74567bb095b14ac96724e"/>
   </x:sheets>
 </x:workbook>
 </file>
